--- a/SpotifyClone-Table.xlsx
+++ b/SpotifyClone-Table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="119">
   <si>
     <t xml:space="preserve">Tabelas Não Normalizadas</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t xml:space="preserve">cancao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duracao</t>
   </si>
   <si>
     <t xml:space="preserve">BREAK MY SOUL</t>
@@ -386,7 +389,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -416,12 +419,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -515,7 +512,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -532,7 +529,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -576,10 +573,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -620,11 +613,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -644,19 +641,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -679,11 +684,11 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F94" activeCellId="0" sqref="F94"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H81" activeCellId="0" sqref="H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="37.3"/>
@@ -1318,10 +1323,10 @@
       <c r="A27" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>96</v>
       </c>
       <c r="E27" s="8"/>
@@ -1329,13 +1334,13 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="n">
+      <c r="A28" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="19" t="n">
+      <c r="C28" s="18" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="8"/>
@@ -1343,13 +1348,13 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="n">
+      <c r="A29" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="20" t="n">
+      <c r="C29" s="19" t="n">
         <v>6.99</v>
       </c>
       <c r="E29" s="8"/>
@@ -1357,13 +1362,13 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="n">
+      <c r="A30" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="20" t="n">
+      <c r="C30" s="19" t="n">
         <v>7.99</v>
       </c>
       <c r="E30" s="8"/>
@@ -1371,13 +1376,13 @@
       <c r="I30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="n">
+      <c r="A31" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="23" t="n">
+      <c r="C31" s="22" t="n">
         <v>5.99</v>
       </c>
       <c r="E31" s="8"/>
@@ -1405,7 +1410,7 @@
       <c r="A34" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>93</v>
       </c>
       <c r="C34" s="8"/>
@@ -1414,10 +1419,10 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="n">
+      <c r="A35" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>69</v>
       </c>
       <c r="C35" s="8"/>
@@ -1426,10 +1431,10 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="n">
+      <c r="A36" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="8"/>
@@ -1438,10 +1443,10 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="n">
+      <c r="A37" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C37" s="8"/>
@@ -1450,10 +1455,10 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17" t="n">
+      <c r="A38" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="8"/>
@@ -1462,10 +1467,10 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17" t="n">
+      <c r="A39" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="18" t="s">
         <v>87</v>
       </c>
       <c r="C39" s="8"/>
@@ -1474,10 +1479,10 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21" t="n">
+      <c r="A40" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="8"/>
@@ -1510,10 +1515,10 @@
       <c r="A43" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>98</v>
       </c>
       <c r="E43" s="8"/>
@@ -1521,13 +1526,13 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17" t="n">
+      <c r="A44" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="19" t="n">
+      <c r="C44" s="18" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="8"/>
@@ -1535,13 +1540,13 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="17" t="n">
+      <c r="A45" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="19" t="n">
+      <c r="C45" s="18" t="n">
         <v>2</v>
       </c>
       <c r="E45" s="8"/>
@@ -1549,13 +1554,13 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17" t="n">
+      <c r="A46" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="19" t="n">
+      <c r="C46" s="18" t="n">
         <v>2</v>
       </c>
       <c r="E46" s="8"/>
@@ -1563,13 +1568,13 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="17" t="n">
+      <c r="A47" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="19" t="n">
+      <c r="C47" s="18" t="n">
         <v>3</v>
       </c>
       <c r="E47" s="8"/>
@@ -1577,13 +1582,13 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17" t="n">
+      <c r="A48" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="19" t="n">
+      <c r="C48" s="18" t="n">
         <v>3</v>
       </c>
       <c r="E48" s="8"/>
@@ -1591,13 +1596,13 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17" t="n">
+      <c r="A49" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="19" t="n">
+      <c r="C49" s="18" t="n">
         <v>4</v>
       </c>
       <c r="E49" s="8"/>
@@ -1605,13 +1610,13 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17" t="n">
+      <c r="A50" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="19" t="n">
+      <c r="C50" s="18" t="n">
         <v>5</v>
       </c>
       <c r="E50" s="8"/>
@@ -1619,13 +1624,13 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="21" t="n">
+      <c r="A51" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="25" t="n">
+      <c r="C51" s="24" t="n">
         <v>6</v>
       </c>
       <c r="E51" s="8"/>
@@ -1649,6 +1654,7 @@
       <c r="C53" s="13" t="s">
         <v>94</v>
       </c>
+      <c r="D53" s="13"/>
       <c r="E53" s="8"/>
       <c r="H53" s="11"/>
       <c r="I53" s="8"/>
@@ -1657,10 +1663,13 @@
       <c r="A54" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>62</v>
       </c>
       <c r="E54" s="8"/>
@@ -1668,125 +1677,169 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17" t="n">
+      <c r="A55" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B55" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="19" t="n">
+      <c r="B55" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="26" t="n">
+        <f aca="false">279/60</f>
+        <v>4.65</v>
+      </c>
+      <c r="D55" s="18" t="n">
         <v>1</v>
       </c>
       <c r="E55" s="8"/>
+      <c r="F55" s="10"/>
       <c r="H55" s="11"/>
       <c r="I55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="n">
+      <c r="A56" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B56" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="19" t="n">
+      <c r="B56" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="26" t="n">
+        <f aca="false">369/60</f>
+        <v>6.15</v>
+      </c>
+      <c r="D56" s="18" t="n">
         <v>1</v>
       </c>
       <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
       <c r="H56" s="11"/>
       <c r="I56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="n">
+      <c r="A57" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B57" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="19" t="n">
+      <c r="B57" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="26" t="n">
+        <f aca="false">116/60</f>
+        <v>1.93333333333333</v>
+      </c>
+      <c r="D57" s="18" t="n">
         <v>1</v>
       </c>
       <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
       <c r="H57" s="11"/>
       <c r="I57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="n">
+      <c r="A58" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B58" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="19" t="n">
+      <c r="B58" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="26" t="n">
+        <f aca="false">203/60</f>
+        <v>3.38333333333333</v>
+      </c>
+      <c r="D58" s="18" t="n">
         <v>2</v>
       </c>
       <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
       <c r="H58" s="11"/>
       <c r="I58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="n">
+      <c r="A59" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="B59" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="19" t="n">
+      <c r="B59" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="26" t="n">
+        <f aca="false">152/60</f>
+        <v>2.53333333333333</v>
+      </c>
+      <c r="D59" s="18" t="n">
         <v>3</v>
       </c>
       <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
       <c r="H59" s="11"/>
       <c r="I59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="n">
+      <c r="A60" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B60" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="19" t="n">
+      <c r="B60" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="26" t="n">
+        <f aca="false">105/60</f>
+        <v>1.75</v>
+      </c>
+      <c r="D60" s="18" t="n">
         <v>4</v>
       </c>
       <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
       <c r="H60" s="11"/>
       <c r="I60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="n">
+      <c r="A61" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="B61" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" s="19" t="n">
+      <c r="B61" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="26" t="n">
+        <f aca="false">207/60</f>
+        <v>3.45</v>
+      </c>
+      <c r="D61" s="18" t="n">
         <v>5</v>
       </c>
       <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
       <c r="H61" s="11"/>
       <c r="I61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17" t="n">
+      <c r="A62" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="B62" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="19" t="n">
+      <c r="B62" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="26" t="n">
+        <f aca="false">267/60</f>
+        <v>4.45</v>
+      </c>
+      <c r="D62" s="18" t="n">
         <v>6</v>
       </c>
       <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
       <c r="H62" s="11"/>
       <c r="I62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17" t="n">
+      <c r="A63" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="B63" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" s="19" t="n">
+      <c r="B63" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="26" t="n">
+        <f aca="false">244/60</f>
+        <v>4.06666666666667</v>
+      </c>
+      <c r="D63" s="18" t="n">
         <v>7</v>
       </c>
       <c r="E63" s="8"/>
@@ -1794,13 +1847,17 @@
       <c r="I63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="21" t="n">
+      <c r="A64" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="B64" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" s="25" t="n">
+      <c r="B64" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="27" t="n">
+        <f aca="false">100/60</f>
+        <v>1.66666666666667</v>
+      </c>
+      <c r="D64" s="24" t="n">
         <v>8</v>
       </c>
       <c r="E64" s="8"/>
@@ -1816,7 +1873,7 @@
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>93</v>
@@ -1833,26 +1890,26 @@
       <c r="A67" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E67" s="16" t="s">
+      <c r="D67" s="25" t="s">
         <v>112</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17" t="n">
+      <c r="A68" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="28" t="n">
@@ -1868,10 +1925,10 @@
       <c r="I68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="17" t="n">
+      <c r="A69" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="28" t="n">
@@ -1887,10 +1944,10 @@
       <c r="I69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17" t="n">
+      <c r="A70" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C70" s="28" t="n">
@@ -1906,10 +1963,10 @@
       <c r="I70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17" t="n">
+      <c r="A71" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C71" s="28" t="n">
@@ -1925,10 +1982,10 @@
       <c r="I71" s="8"/>
     </row>
     <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17" t="n">
+      <c r="A72" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="28" t="n">
@@ -1944,10 +2001,10 @@
       <c r="I72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17" t="n">
+      <c r="A73" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="28" t="n">
@@ -1963,10 +2020,10 @@
       <c r="I73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="17" t="n">
+      <c r="A74" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C74" s="28" t="n">
@@ -1982,10 +2039,10 @@
       <c r="I74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="17" t="n">
+      <c r="A75" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="28" t="n">
@@ -2001,10 +2058,10 @@
       <c r="I75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="17" t="n">
+      <c r="A76" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C76" s="28" t="n">
@@ -2020,10 +2077,10 @@
       <c r="I76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="21" t="n">
+      <c r="A77" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C77" s="30" t="n">
@@ -2047,7 +2104,7 @@
     </row>
     <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>93</v>
@@ -2055,577 +2112,530 @@
       <c r="C79" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D79" s="13"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="H79" s="11"/>
       <c r="I79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" s="27" t="s">
+      <c r="A80" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="B80" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E80" s="8"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="8"/>
+      <c r="C80" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="17" t="n">
+      <c r="A81" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="B81" s="18" t="n">
+      <c r="B81" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C81" s="34" t="n">
+        <v>44620.4485532407</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="0"/>
+      <c r="J81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="C81" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="D81" s="32" t="n">
-        <v>44620.4485532407</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="0"/>
-    </row>
-    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="17" t="n">
+      <c r="B82" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="B82" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D82" s="32" t="n">
+      <c r="C82" s="34" t="n">
         <v>43953.2295717593</v>
       </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="2"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="8"/>
+      <c r="H82" s="0"/>
       <c r="I82" s="0"/>
       <c r="J82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="B83" s="18" t="n">
+      <c r="A83" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="C83" s="18" t="n">
+      <c r="B83" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="D83" s="32" t="n">
+      <c r="C83" s="34" t="n">
         <v>43896.4739930556</v>
       </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="2"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="8"/>
+      <c r="H83" s="0"/>
       <c r="I83" s="0"/>
       <c r="J83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B84" s="18" t="n">
+      <c r="A84" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="C84" s="18" t="n">
+      <c r="B84" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="D84" s="32" t="n">
+      <c r="C84" s="34" t="n">
         <v>44778.3370023148</v>
       </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="2"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="8"/>
+      <c r="H84" s="0"/>
       <c r="I84" s="0"/>
       <c r="J84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B85" s="18" t="n">
+      <c r="A85" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="C85" s="18" t="n">
+      <c r="B85" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="D85" s="32" t="n">
+      <c r="C85" s="34" t="n">
         <v>43832.3198263889</v>
       </c>
-      <c r="E85" s="2"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="2"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="8"/>
+      <c r="H85" s="0"/>
       <c r="I85" s="0"/>
       <c r="J85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="B86" s="18" t="n">
+      <c r="A86" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="C86" s="18" t="n">
+      <c r="B86" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="D86" s="32" t="n">
+      <c r="C86" s="34" t="n">
         <v>44148.7050115741</v>
       </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="2"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="8"/>
+      <c r="H86" s="0"/>
       <c r="I86" s="0"/>
       <c r="J86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="B87" s="18" t="n">
+      <c r="A87" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="C87" s="18" t="n">
+      <c r="B87" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="D87" s="32" t="n">
+      <c r="C87" s="34" t="n">
         <v>44170.7767361111</v>
       </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="2"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="8"/>
+      <c r="H87" s="0"/>
       <c r="I87" s="0"/>
       <c r="J87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="17" t="n">
+      <c r="A88" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B88" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B88" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C88" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="D88" s="32" t="n">
+      <c r="C88" s="34" t="n">
         <v>44423.7153935185</v>
       </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="2"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="8"/>
+      <c r="H88" s="0"/>
       <c r="I88" s="0"/>
       <c r="J88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="17" t="n">
-        <v>9</v>
-      </c>
-      <c r="B89" s="18" t="n">
+      <c r="A89" s="33" t="n">
         <v>5</v>
       </c>
-      <c r="C89" s="18" t="n">
+      <c r="B89" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="D89" s="32" t="n">
+      <c r="C89" s="34" t="n">
         <v>44570.0726041667</v>
       </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="2"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="8"/>
+      <c r="H89" s="0"/>
       <c r="I89" s="0"/>
       <c r="J89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="B90" s="18" t="n">
+      <c r="A90" s="33" t="n">
         <v>5</v>
       </c>
-      <c r="C90" s="18" t="n">
+      <c r="B90" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="D90" s="32" t="n">
+      <c r="C90" s="34" t="n">
         <v>44049.6414699074</v>
       </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="2"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="8"/>
+      <c r="H90" s="0"/>
       <c r="I90" s="0"/>
       <c r="J90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="17" t="n">
-        <v>11</v>
-      </c>
-      <c r="B91" s="33" t="n">
+      <c r="A91" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="C91" s="18" t="n">
+      <c r="B91" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="D91" s="32" t="n">
+      <c r="C91" s="34" t="n">
         <v>42759.021724537</v>
       </c>
-      <c r="E91" s="2"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="2"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="8"/>
+      <c r="H91" s="0"/>
       <c r="I91" s="0"/>
       <c r="J91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="B92" s="33" t="n">
+      <c r="A92" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="C92" s="18" t="n">
+      <c r="B92" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="D92" s="32" t="n">
+      <c r="C92" s="34" t="n">
         <v>43020.524537037</v>
       </c>
-      <c r="E92" s="2"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="2"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="8"/>
+      <c r="H92" s="0"/>
       <c r="I92" s="0"/>
       <c r="J92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="B93" s="33" t="n">
+      <c r="A93" s="35" t="n">
         <v>7</v>
       </c>
-      <c r="C93" s="18" t="n">
+      <c r="B93" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="D93" s="32" t="n">
+      <c r="C93" s="34" t="n">
         <v>40892.9380671296</v>
       </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="2"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="8"/>
+      <c r="H93" s="0"/>
       <c r="I93" s="0"/>
       <c r="J93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="B94" s="33" t="n">
+      <c r="A94" s="35" t="n">
         <v>8</v>
       </c>
-      <c r="C94" s="18" t="n">
+      <c r="B94" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="D94" s="32" t="n">
+      <c r="C94" s="34" t="n">
         <v>40985.6226967593</v>
       </c>
-      <c r="E94" s="2"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="2"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="8"/>
+      <c r="H94" s="0"/>
       <c r="I94" s="0"/>
       <c r="J94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B95" s="33" t="n">
+      <c r="A95" s="35" t="n">
         <v>9</v>
       </c>
-      <c r="C95" s="18" t="n">
+      <c r="B95" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="D95" s="32" t="n">
+      <c r="C95" s="34" t="n">
         <v>44616.8849768519</v>
       </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="2"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="8"/>
+      <c r="H95" s="0"/>
       <c r="I95" s="0"/>
       <c r="J95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="21" t="n">
-        <v>16</v>
-      </c>
-      <c r="B96" s="34" t="n">
+      <c r="A96" s="36" t="n">
         <v>10</v>
       </c>
-      <c r="C96" s="22" t="n">
+      <c r="B96" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="D96" s="35" t="n">
+      <c r="C96" s="37" t="n">
         <v>42351.3544212963</v>
       </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="2"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="8"/>
+      <c r="H96" s="0"/>
       <c r="I96" s="0"/>
       <c r="J96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="8"/>
       <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="H97" s="11"/>
       <c r="I97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B98" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E98" s="8"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="8"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="2"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="14" t="s">
-        <v>95</v>
+      <c r="A99" s="32" t="s">
+        <v>115</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E99" s="8"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="8"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="2"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="17" t="n">
+      <c r="A100" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="B100" s="26" t="n">
+      <c r="B100" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C100" s="19" t="n">
+      <c r="C100" s="2"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="2"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="E100" s="8"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="8"/>
-    </row>
-    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="17" t="n">
+      <c r="B101" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="B101" s="26" t="n">
+      <c r="C101" s="2"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="2"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="0"/>
+    </row>
+    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="C101" s="19" t="n">
+      <c r="B102" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="2"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="E101" s="8"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="8"/>
-    </row>
-    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="17" t="n">
+      <c r="B103" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="2"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="0"/>
+    </row>
+    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B104" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="B102" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C102" s="19" t="n">
+      <c r="C104" s="2"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="2"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="E102" s="8"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="8"/>
-    </row>
-    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="17" t="n">
+      <c r="B105" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="2"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="33" t="n">
         <v>4</v>
-      </c>
-      <c r="B103" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C103" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E103" s="8"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="8"/>
-    </row>
-    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B104" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C104" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="E104" s="8"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="8"/>
-    </row>
-    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="B105" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C105" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E105" s="8"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="8"/>
-    </row>
-    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="17" t="n">
-        <v>7</v>
       </c>
       <c r="B106" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="C106" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="E106" s="8"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="8"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="2"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="17" t="n">
-        <v>8</v>
+      <c r="A107" s="33" t="n">
+        <v>5</v>
       </c>
       <c r="B107" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="C107" s="19" t="n">
+      <c r="C107" s="2"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="2"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="0"/>
+    </row>
+    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="33" t="n">
         <v>5</v>
       </c>
-      <c r="E107" s="8"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="8"/>
-    </row>
-    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="17" t="n">
+      <c r="B108" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="2"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="33" t="n">
+        <v>6</v>
+      </c>
+      <c r="B109" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="2"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="0"/>
+    </row>
+    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="B110" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="2"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="0"/>
+    </row>
+    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B111" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="2"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="0"/>
+    </row>
+    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="35" t="n">
         <v>9</v>
       </c>
-      <c r="B108" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C108" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="E108" s="8"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="8"/>
-    </row>
-    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="17" t="n">
+      <c r="B112" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="2"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="0"/>
+    </row>
+    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="36" t="n">
         <v>10</v>
       </c>
-      <c r="B109" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C109" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E109" s="8"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="8"/>
-    </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="17" t="n">
-        <v>11</v>
-      </c>
-      <c r="B110" s="33" t="n">
-        <v>6</v>
-      </c>
-      <c r="C110" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="E110" s="8"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="8"/>
-    </row>
-    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="B111" s="33" t="n">
-        <v>7</v>
-      </c>
-      <c r="C111" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="E111" s="8"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="8"/>
-    </row>
-    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="B112" s="33" t="n">
-        <v>9</v>
-      </c>
-      <c r="C112" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="E112" s="8"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="8"/>
-    </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="21" t="n">
-        <v>14</v>
-      </c>
-      <c r="B113" s="34" t="n">
-        <v>10</v>
-      </c>
-      <c r="C113" s="25" t="n">
+      <c r="B113" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="E113" s="8"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="8"/>
+      <c r="C113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="8"/>
@@ -8785,10 +8795,10 @@
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A53:D53"/>
     <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A98:B98"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
